--- a/output/c6aurac_brawler_levels_team.xlsx
+++ b/output/c6aurac_brawler_levels_team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="97">
   <si>
     <t>player</t>
   </si>
@@ -76,9 +76,6 @@
     <t>OD|取り戻す</t>
   </si>
   <si>
-    <t>SG|🔥Fire🔥</t>
-  </si>
-  <si>
     <t>VENOM</t>
   </si>
   <si>
@@ -166,9 +163,6 @@
     <t>#UVV8VR0Y</t>
   </si>
   <si>
-    <t>#CQ8RC802</t>
-  </si>
-  <si>
     <t>#8YJY09VRC</t>
   </si>
   <si>
@@ -220,22 +214,22 @@
     <t>#28P22CJRY</t>
   </si>
   <si>
-    <t>BO, BROCK, BYRON, CARL, DARRYL, EMZ, EVE, GALE, GRIFF, LOLA, MAX, PAM, PENNY, POCO, ROSA, SANDY, STU</t>
+    <t xml:space="preserve">BO, BROCK, BYRON, CARL, DARRYL, EMZ, EVE, GALE, GRIFF, LOLA, MAX, PAM, ... </t>
   </si>
   <si>
     <t>BARLEY, DARRYL, EMZ, JESSIE, NANI, NITA, PENNY, SANDY, STU, TICK</t>
   </si>
   <si>
-    <t>AMBER, ASH, BELLE, BONNIE, CARL, CROW, EVE, GENE, GRIFF, JANET, LEON, MR. P, SAM, SHELLY, SPIKE, SURGE, TARA</t>
-  </si>
-  <si>
-    <t>ASH, BEA, BELLE, BIBI, BO, BROCK, BYRON, CARL, CROW, DARRYL, EMZ, FANG, GALE, GENE, GRIFF, JESSIE, LEON, LOLA, MEG, MORTIS, NITA, OTIS, PAM, PENNY, RICO, RUFFS, SANDY, SPIKE, STU, SURGE, TARA</t>
-  </si>
-  <si>
-    <t>8-BIT, BELLE, BUZZ, BYRON, COLETTE, CROW, DYNAMIKE, EDGAR, EMZ, EVE, GALE, GENE, GRIFF, JANET, LOLA, LOU, MORTIS, OTIS, PIPER, SANDY, SPIKE, SPROUT, SQUEAK, STU, TARA, TICK</t>
-  </si>
-  <si>
-    <t>ASH, BO, BONNIE, BYRON, CARL, COLETTE, CROW, EVE, FANG, GALE, GRIFF, LOLA, LOU, MAX, MEG, OTIS, PAM, RICO, SPIKE, SQUEAK, STU, TARA</t>
+    <t xml:space="preserve">AMBER, ASH, BELLE, BONNIE, CARL, COLETTE, CROW, EVE, GENE, GRIFF, JANET, LEON, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BEA, BELLE, BIBI, BO, BROCK, BYRON, CARL, CROW, DARRYL, EMZ, FANG, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-BIT, BELLE, BUZZ, BYRON, COLETTE, CROW, DYNAMIKE, EDGAR, EMZ, EVE, GALE, GENE, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BO, BONNIE, BYRON, CARL, COLETTE, CROW, EVE, FANG, GALE, GRIFF, LOLA, ... </t>
   </si>
   <si>
     <t>8-BIT, ASH, BIBI, TICK</t>
@@ -244,25 +238,22 @@
     <t>EVE, JANET, SHELLY</t>
   </si>
   <si>
-    <t>ASH, BONNIE, BUZZ, CROW, EVE, FANG, GALE, GRIFF, GUS, JANET, MORTIS, OTIS, SAM, STU, SURGE, TARA</t>
+    <t xml:space="preserve">ASH, BONNIE, BUZZ, CROW, EVE, FANG, GALE, GRIFF, GUS, JANET, MORTIS, OTIS, ... </t>
   </si>
   <si>
     <t>BUZZ</t>
   </si>
   <si>
-    <t>BEA, BO, BYRON, CARL, CROW, MAX, ROSA, RUFFS, SANDY, SPIKE, TICK</t>
+    <t>BEA, BO, BYRON, CARL, CROW, GRIFF, MAX, ROSA, RUFFS, SANDY, SPIKE, TICK</t>
   </si>
   <si>
     <t>ASH, BROCK, COLT, DYNAMIKE, EL PRIMO, MAX, SHELLY, STU</t>
   </si>
   <si>
-    <t>CARL, MAX, MORTIS, SPIKE, SURGE</t>
-  </si>
-  <si>
     <t>CROW</t>
   </si>
   <si>
-    <t>8-BIT, COLETTE, CROW, DARRYL, EL PRIMO, EVE, GALE, GENE, GRIFF, JANET, MAX, MORTIS, PIPER, POCO, RUFFS, SANDY, SHELLY, STU, TARA</t>
+    <t xml:space="preserve">8-BIT, COLETTE, CROW, DARRYL, EL PRIMO, EMZ, EVE, GALE, GENE, GRIFF, JANET, MAX, ... </t>
   </si>
   <si>
     <t>CARL, EMZ, GENE, JACKY, MAX, MORTIS, SURGE, TARA</t>
@@ -271,7 +262,7 @@
     <t>BELLE, BYRON, CROW, GRIFF, JANET, PIPER, POCO, SQUEAK, STU, SURGE</t>
   </si>
   <si>
-    <t>ASH, BELLE, BONNIE, CARL, CROW, EMZ, GRIFF, JANET, LEON, PAM, POCO, RICO, RUFFS, SPIKE, SQUEAK, STU, SURGE, TARA</t>
+    <t xml:space="preserve">ASH, BELLE, BONNIE, CARL, CROW, EMZ, GRIFF, JANET, LEON, PAM, POCO, RICO, ... </t>
   </si>
   <si>
     <t>BIBI, CROW, EMZ, FANG, GALE, GRIFF, LEON, MAX, SANDY, SPIKE, SQUEAK</t>
@@ -280,19 +271,19 @@
     <t>BONNIE, BROCK, CARL, EMZ, FANG, JANET, PENNY, POCO, SPIKE, STU</t>
   </si>
   <si>
-    <t>BELLE, BYRON, COLT, CROW, DARRYL, EMZ, GRIFF, MR. P, ROSA, SANDY, TARA</t>
-  </si>
-  <si>
-    <t>ASH, BO, COLETTE, CROW, DARRYL, EDGAR, EMZ, GALE, GRIFF, JESSIE, LEON, MAX, OTIS, PAM, PENNY, POCO, SPIKE, STU, TARA</t>
-  </si>
-  <si>
-    <t>DARRYL, RICO</t>
+    <t>BELLE, BYRON, COLT, CROW, DARRYL, EMZ, GRIFF, MR. P, NITA, ROSA, SANDY, TARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BO, CARL, COLETTE, CROW, DARRYL, EDGAR, EMZ, GALE, GRIFF, JESSIE, LEON, ... </t>
+  </si>
+  <si>
+    <t>BO, DARRYL, RICO</t>
   </si>
   <si>
     <t>CROW, EVE, MORTIS, SPIKE</t>
   </si>
   <si>
-    <t>8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BULL, BUZZ, BYRON, CARL, COLETTE, COLT, CROW, DARRYL, DYNAMIKE, EDGAR, EL PRIMO, EMZ, EVE, FANG, FRANK, GALE, GENE, GRIFF, GROM, GUS, JACKY, JANET, JESSIE, LEON, LOLA, LOU, MAX, MEG, MORTIS, MR. P, NANI, NITA, OTIS, PAM, PENNY, PIPER, POCO, RICO, ROSA, RUFFS, SAM, SANDY, SHELLY, SPIKE, SPROUT, SQUEAK, STU, SURGE, TARA, TICK</t>
+    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BULL, BUZZ, ... </t>
   </si>
   <si>
     <t>ASH, BYRON, EMZ, EVE, SANDY</t>
@@ -313,7 +304,7 @@
     <t>C6 Brawler Levels</t>
   </si>
   <si>
-    <t>2022-10-06</t>
+    <t>2022-10-10</t>
   </si>
 </sst>
 </file>
@@ -684,7 +675,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS33"/>
+  <dimension ref="A1:AS32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -697,7 +688,7 @@
   <sheetData>
     <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -746,16 +737,16 @@
     </row>
     <row r="2" spans="1:45">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2">
-        <v>33436</v>
+        <v>33502</v>
       </c>
       <c r="E2" s="2">
         <v>41</v>
@@ -767,7 +758,7 @@
         <v>17</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -804,10 +795,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2">
-        <v>33436</v>
+        <v>33502</v>
       </c>
       <c r="E4" s="2">
         <v>41</v>
@@ -819,7 +810,7 @@
         <v>17</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -830,10 +821,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2">
-        <v>29144</v>
+        <v>29234</v>
       </c>
       <c r="E5" s="2">
         <v>44</v>
@@ -845,7 +836,7 @@
         <v>10</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -856,22 +847,22 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2">
-        <v>33730</v>
+        <v>33941</v>
       </c>
       <c r="E6" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G6" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -882,10 +873,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2">
-        <v>34766</v>
+        <v>34798</v>
       </c>
       <c r="E7" s="2">
         <v>29</v>
@@ -897,7 +888,7 @@
         <v>31</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -908,10 +899,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2">
-        <v>38174</v>
+        <v>38198</v>
       </c>
       <c r="E8" s="2">
         <v>28</v>
@@ -923,7 +914,7 @@
         <v>26</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -934,10 +925,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2">
-        <v>34038</v>
+        <v>34089</v>
       </c>
       <c r="E9" s="2">
         <v>33</v>
@@ -949,7 +940,7 @@
         <v>22</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -960,10 +951,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2">
-        <v>36756</v>
+        <v>36765</v>
       </c>
       <c r="E10" s="2">
         <v>23</v>
@@ -975,7 +966,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -986,13 +977,13 @@
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2">
-        <v>27824</v>
+        <v>27961</v>
       </c>
       <c r="E11" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" s="2">
         <v>10</v>
@@ -1001,7 +992,7 @@
         <v>3</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -1012,22 +1003,22 @@
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2">
-        <v>36276</v>
+        <v>36389</v>
       </c>
       <c r="E12" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G12" s="2">
         <v>16</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -1038,13 +1029,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="2">
-        <v>12197</v>
+        <v>12137</v>
       </c>
       <c r="E13" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F13" s="2">
         <v>19</v>
@@ -1053,7 +1044,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -1064,22 +1055,22 @@
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="2">
-        <v>32398</v>
+        <v>32921</v>
       </c>
       <c r="E14" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2">
         <v>1</v>
       </c>
       <c r="G14" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -1090,10 +1081,10 @@
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="2">
-        <v>26082</v>
+        <v>26103</v>
       </c>
       <c r="E15" s="2">
         <v>33</v>
@@ -1105,7 +1096,7 @@
         <v>8</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -1116,22 +1107,22 @@
         <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="2">
-        <v>36379</v>
+        <v>29545</v>
       </c>
       <c r="E16" s="2">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="F16" s="2">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G16" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1139,25 +1130,25 @@
         <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="2">
-        <v>29477</v>
+        <v>41329</v>
       </c>
       <c r="E17" s="2">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F17" s="2">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G17" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1168,22 +1159,22 @@
         <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="2">
-        <v>40895</v>
+        <v>31981</v>
       </c>
       <c r="E18" s="2">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F18" s="2">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G18" s="2">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1191,25 +1182,25 @@
         <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="2">
-        <v>31309</v>
+        <v>30889</v>
       </c>
       <c r="E19" s="2">
         <v>29</v>
       </c>
       <c r="F19" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G19" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1220,22 +1211,22 @@
         <v>7</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" s="2">
-        <v>30820</v>
+        <v>34218</v>
       </c>
       <c r="E20" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F20" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G20" s="2">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1246,22 +1237,22 @@
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" s="2">
-        <v>34159</v>
+        <v>42032</v>
       </c>
       <c r="E21" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F21" s="2">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G21" s="2">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1269,25 +1260,25 @@
         <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="2">
-        <v>42088</v>
+        <v>18755</v>
       </c>
       <c r="E22" s="2">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="F22" s="2">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G22" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1298,22 +1289,22 @@
         <v>8</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" s="2">
-        <v>18755</v>
+        <v>36719</v>
       </c>
       <c r="E23" s="2">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="F23" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G23" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1324,22 +1315,22 @@
         <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D24" s="2">
-        <v>36407</v>
+        <v>37896</v>
       </c>
       <c r="E24" s="2">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F24" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G24" s="2">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1347,25 +1338,25 @@
         <v>29</v>
       </c>
       <c r="B25" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25" s="2">
-        <v>37823</v>
+        <v>5655</v>
       </c>
       <c r="E25" s="2">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="F25" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G25" s="2">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1376,22 +1367,22 @@
         <v>9</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D26" s="2">
-        <v>5609</v>
+        <v>25173</v>
       </c>
       <c r="E26" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F26" s="2">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="G26" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1399,25 +1390,25 @@
         <v>31</v>
       </c>
       <c r="B27" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" s="2">
-        <v>25173</v>
+        <v>31444</v>
       </c>
       <c r="E27" s="2">
         <v>0</v>
       </c>
       <c r="F27" s="2">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G27" s="2">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1428,22 +1419,22 @@
         <v>10</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D28" s="2">
-        <v>31233</v>
+        <v>30754</v>
       </c>
       <c r="E28" s="2">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F28" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G28" s="2">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1454,48 +1445,46 @@
         <v>10</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D29" s="2">
-        <v>30705</v>
+        <v>30009</v>
       </c>
       <c r="E29" s="2">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F29" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G29" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="2">
-        <v>10</v>
-      </c>
+      <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D30" s="2">
-        <v>29773</v>
+        <v>28504</v>
       </c>
       <c r="E30" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F30" s="2">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G30" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1504,22 +1493,22 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D31" s="2">
-        <v>28476</v>
+        <v>31463</v>
       </c>
       <c r="E31" s="2">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F31" s="2">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G31" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1528,46 +1517,22 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D32" s="2">
-        <v>31062</v>
+        <v>31659</v>
       </c>
       <c r="E32" s="2">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F32" s="2">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G32" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="2">
-        <v>31553</v>
-      </c>
-      <c r="E33" s="2">
-        <v>35</v>
-      </c>
-      <c r="F33" s="2">
-        <v>14</v>
-      </c>
-      <c r="G33" s="2">
-        <v>4</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1575,7 +1540,7 @@
     <mergeCell ref="A1:AS1"/>
     <mergeCell ref="A2:AS2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:H30">
+  <conditionalFormatting sqref="A2:H29">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD($B2,2)=0</formula>
     </cfRule>

--- a/output/c6aurac_brawler_levels_team.xlsx
+++ b/output/c6aurac_brawler_levels_team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="99">
   <si>
     <t>player</t>
   </si>
@@ -49,13 +49,13 @@
     <t>cuteangel</t>
   </si>
   <si>
-    <t>JustBeNice</t>
-  </si>
-  <si>
-    <t>Procrastinator⏳</t>
-  </si>
-  <si>
-    <t>menoobenelol</t>
+    <t>Lava Blaze</t>
+  </si>
+  <si>
+    <t>MR.</t>
+  </si>
+  <si>
+    <t>Tsunami splash</t>
   </si>
   <si>
     <t>RayDaBest</t>
@@ -70,13 +70,19 @@
     <t>KMB | ɴᴀᴛᴛɪᴇ♡</t>
   </si>
   <si>
+    <t>Wailing Swan</t>
+  </si>
+  <si>
     <t>_mym_</t>
   </si>
   <si>
-    <t>OD|取り戻す</t>
-  </si>
-  <si>
-    <t>VENOM</t>
+    <t>H¥DRA|HANZLA ¢</t>
+  </si>
+  <si>
+    <t>Omz</t>
+  </si>
+  <si>
+    <t>Snoopy&gt;.&lt;|をゆひせぬ</t>
   </si>
   <si>
     <t>OBL|💫Starlight</t>
@@ -85,13 +91,16 @@
     <t>Saurav</t>
   </si>
   <si>
+    <t>❦︎𝐙𝐆|hanzla💫</t>
+  </si>
+  <si>
     <t>Blaze</t>
   </si>
   <si>
     <t>DOOM</t>
   </si>
   <si>
-    <t>❦︎𝐙𝐆|hanzla💫</t>
+    <t>eric</t>
   </si>
   <si>
     <t>Tribe | LHC 2</t>
@@ -109,22 +118,16 @@
     <t>sasameseed</t>
   </si>
   <si>
+    <t>None</t>
+  </si>
+  <si>
     <t>Synderella</t>
   </si>
   <si>
     <t>shauntws</t>
   </si>
   <si>
-    <t>ßłå¢kJR</t>
-  </si>
-  <si>
-    <t>HIMEL💞🇧🇩</t>
-  </si>
-  <si>
-    <t>Wailing Swan</t>
-  </si>
-  <si>
-    <t>¯\_(ツ)_/¯</t>
+    <t>Mini Breeze</t>
   </si>
   <si>
     <t>#JVQP8LLY</t>
@@ -136,13 +139,13 @@
     <t>#JJV99PV9</t>
   </si>
   <si>
-    <t>#J90L8C0Y</t>
-  </si>
-  <si>
-    <t>#V2JCQQQJ</t>
-  </si>
-  <si>
-    <t>#CP988U8Y</t>
+    <t>#2QPRUQJP2</t>
+  </si>
+  <si>
+    <t>#9V8GGUQRR</t>
+  </si>
+  <si>
+    <t>#82GLQ8VQJ</t>
   </si>
   <si>
     <t>#200U2RLLV</t>
@@ -157,13 +160,19 @@
     <t>#2CQYQU0QQ</t>
   </si>
   <si>
+    <t>#2LYQPR8G9</t>
+  </si>
+  <si>
     <t>#82808UG9G</t>
   </si>
   <si>
-    <t>#UVV8VR0Y</t>
-  </si>
-  <si>
-    <t>#8YJY09VRC</t>
+    <t>#8YGQJCUVR</t>
+  </si>
+  <si>
+    <t>#8L00JQGP9</t>
+  </si>
+  <si>
+    <t>#C9RCCU8J</t>
   </si>
   <si>
     <t>#U22LU9JR</t>
@@ -172,13 +181,16 @@
     <t>#U2Q9L2QU</t>
   </si>
   <si>
+    <t>#8R9UR9C90</t>
+  </si>
+  <si>
     <t>#C0R8YQC</t>
   </si>
   <si>
     <t>#CPJC0QUV</t>
   </si>
   <si>
-    <t>#8R9UR9C90</t>
+    <t>#80VR8V9</t>
   </si>
   <si>
     <t>#V8VRPRYQ</t>
@@ -196,40 +208,34 @@
     <t>#8999QQCPC</t>
   </si>
   <si>
+    <t>#J80JQCQC</t>
+  </si>
+  <si>
     <t>#R80JC998</t>
   </si>
   <si>
     <t>#GJCYYV0P</t>
   </si>
   <si>
-    <t>#GU99VGV8</t>
-  </si>
-  <si>
-    <t>#9GJ2Y9RY8</t>
-  </si>
-  <si>
-    <t>#2LYQPR8G9</t>
-  </si>
-  <si>
-    <t>#28P22CJRY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BO, BROCK, BYRON, CARL, DARRYL, EMZ, EVE, GALE, GRIFF, LOLA, MAX, PAM, ... </t>
-  </si>
-  <si>
-    <t>BARLEY, DARRYL, EMZ, JESSIE, NANI, NITA, PENNY, SANDY, STU, TICK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMBER, ASH, BELLE, BONNIE, CARL, COLETTE, CROW, EVE, GENE, GRIFF, JANET, LEON, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASH, BEA, BELLE, BIBI, BO, BROCK, BYRON, CARL, CROW, DARRYL, EMZ, FANG, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-BIT, BELLE, BUZZ, BYRON, COLETTE, CROW, DYNAMIKE, EDGAR, EMZ, EVE, GALE, GENE, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASH, BO, BONNIE, BYRON, CARL, COLETTE, CROW, EVE, FANG, GALE, GRIFF, LOLA, ... </t>
+    <t>#2CVYPV0YP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEA, BIBI, BO, BROCK, BYRON, CARL, DARRYL, EMZ, EVE, GALE, GRIFF, LOLA, ... </t>
+  </si>
+  <si>
+    <t>BARLEY, BO, CROW, DARRYL, EMZ, JESSIE, NANI, NITA, PENNY, SANDY, STU, TICK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMBER, ASH, BELLE, BONNIE, CARL, COLETTE, CROW, EVE, GALE, GENE, GRIFF, GROM, ... </t>
+  </si>
+  <si>
+    <t>DARRYL, EL PRIMO, GALE, LEON, SANDY, SPIKE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BONNIE, BROCK, BUZZ, DARRYL, EMZ, GENE, GRIFF, LOLA, MAX, MEG, PAM, POCO, ... </t>
+  </si>
+  <si>
+    <t>ASH, CROW, FANG, MORTIS, SPIKE, STU, SURGE</t>
   </si>
   <si>
     <t>8-BIT, ASH, BIBI, TICK</t>
@@ -238,73 +244,73 @@
     <t>EVE, JANET, SHELLY</t>
   </si>
   <si>
-    <t xml:space="preserve">ASH, BONNIE, BUZZ, CROW, EVE, FANG, GALE, GRIFF, GUS, JANET, MORTIS, OTIS, ... </t>
+    <t xml:space="preserve">ASH, BARLEY, BONNIE, BROCK, BUZZ, CARL, CROW, EVE, FANG, GALE, GRIFF, GUS, ... </t>
   </si>
   <si>
     <t>BUZZ</t>
   </si>
   <si>
-    <t>BEA, BO, BYRON, CARL, CROW, GRIFF, MAX, ROSA, RUFFS, SANDY, SPIKE, TICK</t>
-  </si>
-  <si>
-    <t>ASH, BROCK, COLT, DYNAMIKE, EL PRIMO, MAX, SHELLY, STU</t>
-  </si>
-  <si>
-    <t>CROW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-BIT, COLETTE, CROW, DARRYL, EL PRIMO, EMZ, EVE, GALE, GENE, GRIFF, JANET, MAX, ... </t>
-  </si>
-  <si>
-    <t>CARL, EMZ, GENE, JACKY, MAX, MORTIS, SURGE, TARA</t>
+    <t>BEA, CROW, LEON, MORTIS, RICO, SANDY, SURGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEA, BO, BYRON, CARL, CROW, GENE, GRIFF, MAX, PAM, ROSA, RUFFS, SANDY, ... </t>
+  </si>
+  <si>
+    <t>EMZ, EVE, MAX, POCO, RICO, SPIKE, STU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BULL, BUZZ, ... </t>
+  </si>
+  <si>
+    <t>8-BIT, EDGAR, MEG, PENNY, POCO, STU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-BIT, ASH, BARLEY, BEA, BELLE, BIBI, BO, BROCK, BUZZ, BYRON, COLETTE, COLT, ... </t>
+  </si>
+  <si>
+    <t>BEA, CARL, EMZ, GENE, JACKY, MAX, MORTIS, SURGE, TARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIBI, BO, BONNIE, BULL, BUZZ, CROW, EMZ, FANG, GALE, GRIFF, LEON, MAX, ... </t>
   </si>
   <si>
     <t>BELLE, BYRON, CROW, GRIFF, JANET, PIPER, POCO, SQUEAK, STU, SURGE</t>
   </si>
   <si>
-    <t xml:space="preserve">ASH, BELLE, BONNIE, CARL, CROW, EMZ, GRIFF, JANET, LEON, PAM, POCO, RICO, ... </t>
-  </si>
-  <si>
-    <t>BIBI, CROW, EMZ, FANG, GALE, GRIFF, LEON, MAX, SANDY, SPIKE, SQUEAK</t>
-  </si>
-  <si>
-    <t>BONNIE, BROCK, CARL, EMZ, FANG, JANET, PENNY, POCO, SPIKE, STU</t>
-  </si>
-  <si>
-    <t>BELLE, BYRON, COLT, CROW, DARRYL, EMZ, GRIFF, MR. P, NITA, ROSA, SANDY, TARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASH, BO, CARL, COLETTE, CROW, DARRYL, EDGAR, EMZ, GALE, GRIFF, JESSIE, LEON, ... </t>
-  </si>
-  <si>
-    <t>BO, DARRYL, RICO</t>
+    <t xml:space="preserve">ASH, BELLE, BONNIE, CARL, CROW, EMZ, EVE, GENE, GRIFF, GUS, JANET, LEON, ... </t>
+  </si>
+  <si>
+    <t>ASH, EVE, GRIFF, LOLA, LOU, NANI, POCO, SPIKE, TICK</t>
+  </si>
+  <si>
+    <t>BONNIE, BROCK, CARL, EMZ, FANG, GUS, JANET, OTIS, PENNY, POCO, SPIKE, STU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARLEY, BELLE, BO, BYRON, COLT, CROW, DARRYL, EMZ, GRIFF, MR. P, NITA, OTIS, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BELLE, BO, CARL, COLETTE, CROW, DARRYL, EDGAR, EMZ, GALE, GRIFF, GUS, ... </t>
+  </si>
+  <si>
+    <t>BO, DARRYL, PAM, PENNY, RICO</t>
   </si>
   <si>
     <t>CROW, EVE, MORTIS, SPIKE</t>
   </si>
   <si>
-    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BULL, BUZZ, ... </t>
-  </si>
-  <si>
-    <t>ASH, BYRON, EMZ, EVE, SANDY</t>
-  </si>
-  <si>
-    <t>BYRON, EMZ, GALE, POCO, SPIKE, TARA, TICK</t>
-  </si>
-  <si>
-    <t>JACKY</t>
-  </si>
-  <si>
-    <t>BEA, MORTIS, RICO, SANDY, SURGE</t>
-  </si>
-  <si>
-    <t>EL PRIMO, MORTIS, SHELLY, SURGE</t>
+    <t>BELLE, BYRON, CROW, PIPER, RICO, ROSA, SPIKE</t>
+  </si>
+  <si>
+    <t>ASH, BYRON, EMZ, EVE, GENE, GRIFF, SANDY</t>
+  </si>
+  <si>
+    <t>MORTIS, RICO</t>
   </si>
   <si>
     <t>C6 Brawler Levels</t>
   </si>
   <si>
-    <t>2022-10-10</t>
+    <t>2022-11-01</t>
   </si>
 </sst>
 </file>
@@ -675,7 +681,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS32"/>
+  <dimension ref="A1:AS33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -688,7 +694,7 @@
   <sheetData>
     <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -737,28 +743,28 @@
     </row>
     <row r="2" spans="1:45">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2">
-        <v>33502</v>
+        <v>34787</v>
       </c>
       <c r="E2" s="2">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F2" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -795,22 +801,22 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2">
-        <v>33502</v>
+        <v>34787</v>
       </c>
       <c r="E4" s="2">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -821,22 +827,22 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2">
-        <v>29234</v>
+        <v>29719</v>
       </c>
       <c r="E5" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F5" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G5" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -847,22 +853,22 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2">
-        <v>33941</v>
+        <v>35532</v>
       </c>
       <c r="E6" s="2">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2">
         <v>6</v>
       </c>
       <c r="G6" s="2">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -873,22 +879,22 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2">
-        <v>34798</v>
+        <v>23691</v>
       </c>
       <c r="E7" s="2">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7" s="2">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -899,22 +905,22 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2">
-        <v>38198</v>
+        <v>32730</v>
       </c>
       <c r="E8" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" s="2">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G8" s="2">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -925,22 +931,22 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2">
-        <v>34089</v>
+        <v>34760</v>
       </c>
       <c r="E9" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G9" s="2">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -951,22 +957,22 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2">
-        <v>36765</v>
+        <v>36797</v>
       </c>
       <c r="E10" s="2">
         <v>23</v>
       </c>
       <c r="F10" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G10" s="2">
         <v>4</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -977,22 +983,22 @@
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2">
-        <v>27961</v>
+        <v>29318</v>
       </c>
       <c r="E11" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G11" s="2">
         <v>3</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -1003,22 +1009,22 @@
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" s="2">
-        <v>36389</v>
+        <v>37290</v>
       </c>
       <c r="E12" s="2">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G12" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -1029,22 +1035,22 @@
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" s="2">
-        <v>12137</v>
+        <v>12250</v>
       </c>
       <c r="E13" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F13" s="2">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -1055,22 +1061,22 @@
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D14" s="2">
-        <v>32921</v>
+        <v>32635</v>
       </c>
       <c r="E14" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G14" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -1078,25 +1084,25 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D15" s="2">
-        <v>26103</v>
+        <v>33607</v>
       </c>
       <c r="E15" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F15" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G15" s="2">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -1107,22 +1113,22 @@
         <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="2">
-        <v>29545</v>
+        <v>16138</v>
       </c>
       <c r="E16" s="2">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F16" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G16" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1130,25 +1136,25 @@
         <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="2">
-        <v>41329</v>
+        <v>33169</v>
       </c>
       <c r="E17" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G17" s="2">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1156,25 +1162,25 @@
         <v>22</v>
       </c>
       <c r="B18" s="2">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="2">
+        <v>32546</v>
+      </c>
+      <c r="E18" s="2">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2">
+        <v>37</v>
+      </c>
+      <c r="G18" s="2">
         <v>6</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="2">
-        <v>31981</v>
-      </c>
-      <c r="E18" s="2">
-        <v>28</v>
-      </c>
-      <c r="F18" s="2">
-        <v>14</v>
-      </c>
-      <c r="G18" s="2">
-        <v>8</v>
-      </c>
       <c r="H18" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1182,25 +1188,25 @@
         <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D19" s="2">
-        <v>30889</v>
+        <v>44878</v>
       </c>
       <c r="E19" s="2">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G19" s="2">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1208,25 +1214,25 @@
         <v>24</v>
       </c>
       <c r="B20" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D20" s="2">
-        <v>34218</v>
+        <v>33049</v>
       </c>
       <c r="E20" s="2">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F20" s="2">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G20" s="2">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1234,25 +1240,25 @@
         <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D21" s="2">
-        <v>42032</v>
+        <v>43241</v>
       </c>
       <c r="E21" s="2">
         <v>26</v>
       </c>
       <c r="F21" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G21" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1260,25 +1266,25 @@
         <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D22" s="2">
-        <v>18755</v>
+        <v>31307</v>
       </c>
       <c r="E22" s="2">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F22" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G22" s="2">
         <v>10</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1286,25 +1292,25 @@
         <v>27</v>
       </c>
       <c r="B23" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D23" s="2">
-        <v>36719</v>
+        <v>34761</v>
       </c>
       <c r="E23" s="2">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F23" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G23" s="2">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1312,25 +1318,25 @@
         <v>28</v>
       </c>
       <c r="B24" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D24" s="2">
-        <v>37896</v>
+        <v>30714</v>
       </c>
       <c r="E24" s="2">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F24" s="2">
         <v>11</v>
       </c>
       <c r="G24" s="2">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1338,25 +1344,25 @@
         <v>29</v>
       </c>
       <c r="B25" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D25" s="2">
-        <v>5655</v>
+        <v>19117</v>
       </c>
       <c r="E25" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F25" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G25" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1364,25 +1370,25 @@
         <v>30</v>
       </c>
       <c r="B26" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D26" s="2">
-        <v>25173</v>
+        <v>37314</v>
       </c>
       <c r="E26" s="2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F26" s="2">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="G26" s="2">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1390,25 +1396,25 @@
         <v>31</v>
       </c>
       <c r="B27" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D27" s="2">
-        <v>31444</v>
+        <v>37984</v>
       </c>
       <c r="E27" s="2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F27" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G27" s="2">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1416,25 +1422,25 @@
         <v>32</v>
       </c>
       <c r="B28" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D28" s="2">
-        <v>30754</v>
+        <v>6569</v>
       </c>
       <c r="E28" s="2">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="F28" s="2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G28" s="2">
         <v>5</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1442,97 +1448,127 @@
         <v>33</v>
       </c>
       <c r="B29" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D29" s="2">
-        <v>30009</v>
+        <v>25173</v>
       </c>
       <c r="E29" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F29" s="2">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="G29" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="2">
+        <v>10</v>
+      </c>
       <c r="C30" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D30" s="2">
-        <v>28504</v>
+        <v>36473</v>
       </c>
       <c r="E30" s="2">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F30" s="2">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G30" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="2">
+        <v>10</v>
+      </c>
       <c r="C31" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D31" s="2">
-        <v>31463</v>
+        <v>31683</v>
       </c>
       <c r="E31" s="2">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="F31" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G31" s="2">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="2">
+        <v>10</v>
+      </c>
       <c r="C32" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D32" s="2">
-        <v>31659</v>
+        <v>31164</v>
       </c>
       <c r="E32" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F32" s="2">
+        <v>18</v>
+      </c>
+      <c r="G32" s="2">
+        <v>7</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="2">
+        <v>8137</v>
+      </c>
+      <c r="E33" s="2">
         <v>16</v>
       </c>
-      <c r="G32" s="2">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>94</v>
+      <c r="F33" s="2">
+        <v>2</v>
+      </c>
+      <c r="G33" s="2">
+        <v>2</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1540,7 +1576,7 @@
     <mergeCell ref="A1:AS1"/>
     <mergeCell ref="A2:AS2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:H29">
+  <conditionalFormatting sqref="A2:H32">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD($B2,2)=0</formula>
     </cfRule>

--- a/output/c6aurac_brawler_levels_team.xlsx
+++ b/output/c6aurac_brawler_levels_team.xlsx
@@ -67,24 +67,24 @@
     <t>komji</t>
   </si>
   <si>
+    <t>H¥DRA|HANZLA ¢</t>
+  </si>
+  <si>
     <t>KMB | ɴᴀᴛᴛɪᴇ♡</t>
   </si>
   <si>
+    <t>_mym_</t>
+  </si>
+  <si>
+    <t>Omz</t>
+  </si>
+  <si>
+    <t>Snoopy&gt;.&lt;|をゆひせぬ</t>
+  </si>
+  <si>
     <t>Wailing Swan</t>
   </si>
   <si>
-    <t>_mym_</t>
-  </si>
-  <si>
-    <t>H¥DRA|HANZLA ¢</t>
-  </si>
-  <si>
-    <t>Omz</t>
-  </si>
-  <si>
-    <t>Snoopy&gt;.&lt;|をゆひせぬ</t>
-  </si>
-  <si>
     <t>OBL|💫Starlight</t>
   </si>
   <si>
@@ -112,6 +112,9 @@
     <t>你牛什么牛</t>
   </si>
   <si>
+    <t>Mini Breeze</t>
+  </si>
+  <si>
     <t>Mini|Benn🎯</t>
   </si>
   <si>
@@ -127,9 +130,6 @@
     <t>shauntws</t>
   </si>
   <si>
-    <t>Mini Breeze</t>
-  </si>
-  <si>
     <t>#JVQP8LLY</t>
   </si>
   <si>
@@ -157,24 +157,24 @@
     <t>#8J9V9U02L</t>
   </si>
   <si>
+    <t>#8YGQJCUVR</t>
+  </si>
+  <si>
     <t>#2CQYQU0QQ</t>
   </si>
   <si>
+    <t>#82808UG9G</t>
+  </si>
+  <si>
+    <t>#8L00JQGP9</t>
+  </si>
+  <si>
+    <t>#C9RCCU8J</t>
+  </si>
+  <si>
     <t>#2LYQPR8G9</t>
   </si>
   <si>
-    <t>#82808UG9G</t>
-  </si>
-  <si>
-    <t>#8YGQJCUVR</t>
-  </si>
-  <si>
-    <t>#8L00JQGP9</t>
-  </si>
-  <si>
-    <t>#C9RCCU8J</t>
-  </si>
-  <si>
     <t>#U22LU9JR</t>
   </si>
   <si>
@@ -202,6 +202,9 @@
     <t>#89GV9UG9Q</t>
   </si>
   <si>
+    <t>#2CVYPV0YP</t>
+  </si>
+  <si>
     <t>#9RVV02QQ</t>
   </si>
   <si>
@@ -217,9 +220,6 @@
     <t>#GJCYYV0P</t>
   </si>
   <si>
-    <t>#2CVYPV0YP</t>
-  </si>
-  <si>
     <t xml:space="preserve">BEA, BIBI, BO, BROCK, BYRON, CARL, DARRYL, EMZ, EVE, GALE, GRIFF, LOLA, ... </t>
   </si>
   <si>
@@ -244,27 +244,27 @@
     <t>EVE, JANET, SHELLY</t>
   </si>
   <si>
-    <t xml:space="preserve">ASH, BARLEY, BONNIE, BROCK, BUZZ, CARL, CROW, EVE, FANG, GALE, GRIFF, GUS, ... </t>
+    <t xml:space="preserve">AMBER, ASH, BARLEY, BONNIE, BROCK, BUZZ, BYRON, CARL, CROW, EVE, FANG, GALE, ... </t>
+  </si>
+  <si>
+    <t>EMZ, EVE, MAX, POCO, RICO, SANDY, SPIKE, STU</t>
   </si>
   <si>
     <t>BUZZ</t>
   </si>
   <si>
-    <t>BEA, CROW, LEON, MORTIS, RICO, SANDY, SURGE</t>
-  </si>
-  <si>
     <t xml:space="preserve">BEA, BO, BYRON, CARL, CROW, GENE, GRIFF, MAX, PAM, ROSA, RUFFS, SANDY, ... </t>
   </si>
   <si>
-    <t>EMZ, EVE, MAX, POCO, RICO, SPIKE, STU</t>
-  </si>
-  <si>
     <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BULL, BUZZ, ... </t>
   </si>
   <si>
     <t>8-BIT, EDGAR, MEG, PENNY, POCO, STU</t>
   </si>
   <si>
+    <t>BEA, CROW, LEON, MORTIS, RICO, SANDY, STU, SURGE</t>
+  </si>
+  <si>
     <t xml:space="preserve">8-BIT, ASH, BARLEY, BEA, BELLE, BIBI, BO, BROCK, BUZZ, BYRON, COLETTE, COLT, ... </t>
   </si>
   <si>
@@ -292,6 +292,9 @@
     <t xml:space="preserve">ASH, BELLE, BO, CARL, COLETTE, CROW, DARRYL, EDGAR, EMZ, GALE, GRIFF, GUS, ... </t>
   </si>
   <si>
+    <t>MORTIS, RICO</t>
+  </si>
+  <si>
     <t>BO, DARRYL, PAM, PENNY, RICO</t>
   </si>
   <si>
@@ -304,13 +307,10 @@
     <t>ASH, BYRON, EMZ, EVE, GENE, GRIFF, SANDY</t>
   </si>
   <si>
-    <t>MORTIS, RICO</t>
-  </si>
-  <si>
     <t>C6 Brawler Levels</t>
   </si>
   <si>
-    <t>2022-11-01</t>
+    <t>2022-11-04</t>
   </si>
 </sst>
 </file>
@@ -752,7 +752,7 @@
         <v>38</v>
       </c>
       <c r="D2" s="2">
-        <v>34787</v>
+        <v>34783</v>
       </c>
       <c r="E2" s="2">
         <v>36</v>
@@ -804,7 +804,7 @@
         <v>38</v>
       </c>
       <c r="D4" s="2">
-        <v>34787</v>
+        <v>34783</v>
       </c>
       <c r="E4" s="2">
         <v>36</v>
@@ -830,7 +830,7 @@
         <v>39</v>
       </c>
       <c r="D5" s="2">
-        <v>29719</v>
+        <v>29756</v>
       </c>
       <c r="E5" s="2">
         <v>41</v>
@@ -856,7 +856,7 @@
         <v>40</v>
       </c>
       <c r="D6" s="2">
-        <v>35532</v>
+        <v>35563</v>
       </c>
       <c r="E6" s="2">
         <v>30</v>
@@ -882,7 +882,7 @@
         <v>41</v>
       </c>
       <c r="D7" s="2">
-        <v>23691</v>
+        <v>23625</v>
       </c>
       <c r="E7" s="2">
         <v>21</v>
@@ -908,7 +908,7 @@
         <v>42</v>
       </c>
       <c r="D8" s="2">
-        <v>32730</v>
+        <v>32973</v>
       </c>
       <c r="E8" s="2">
         <v>29</v>
@@ -934,7 +934,7 @@
         <v>43</v>
       </c>
       <c r="D9" s="2">
-        <v>34760</v>
+        <v>34768</v>
       </c>
       <c r="E9" s="2">
         <v>31</v>
@@ -960,7 +960,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="2">
-        <v>36797</v>
+        <v>36785</v>
       </c>
       <c r="E10" s="2">
         <v>23</v>
@@ -986,13 +986,13 @@
         <v>45</v>
       </c>
       <c r="D11" s="2">
-        <v>29318</v>
+        <v>29739</v>
       </c>
       <c r="E11" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G11" s="2">
         <v>3</v>
@@ -1012,16 +1012,16 @@
         <v>46</v>
       </c>
       <c r="D12" s="2">
-        <v>37290</v>
+        <v>37432</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G12" s="2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>76</v>
@@ -1038,16 +1038,16 @@
         <v>47</v>
       </c>
       <c r="D13" s="2">
-        <v>12250</v>
+        <v>16165</v>
       </c>
       <c r="E13" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F13" s="2">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G13" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>77</v>
@@ -1064,16 +1064,16 @@
         <v>48</v>
       </c>
       <c r="D14" s="2">
-        <v>32635</v>
+        <v>12253</v>
       </c>
       <c r="E14" s="2">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F14" s="2">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G14" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>78</v>
@@ -1090,13 +1090,13 @@
         <v>49</v>
       </c>
       <c r="D15" s="2">
-        <v>33607</v>
+        <v>33744</v>
       </c>
       <c r="E15" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G15" s="2">
         <v>14</v>
@@ -1116,16 +1116,16 @@
         <v>50</v>
       </c>
       <c r="D16" s="2">
-        <v>16138</v>
+        <v>33666</v>
       </c>
       <c r="E16" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G16" s="2">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>80</v>
@@ -1142,16 +1142,16 @@
         <v>51</v>
       </c>
       <c r="D17" s="2">
-        <v>33169</v>
+        <v>32553</v>
       </c>
       <c r="E17" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F17" s="2">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G17" s="2">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>81</v>
@@ -1168,16 +1168,16 @@
         <v>52</v>
       </c>
       <c r="D18" s="2">
-        <v>32546</v>
+        <v>32689</v>
       </c>
       <c r="E18" s="2">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F18" s="2">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="G18" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>82</v>
@@ -1194,7 +1194,7 @@
         <v>53</v>
       </c>
       <c r="D19" s="2">
-        <v>44878</v>
+        <v>45084</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         <v>54</v>
       </c>
       <c r="D20" s="2">
-        <v>33049</v>
+        <v>33109</v>
       </c>
       <c r="E20" s="2">
         <v>21</v>
@@ -1246,7 +1246,7 @@
         <v>55</v>
       </c>
       <c r="D21" s="2">
-        <v>43241</v>
+        <v>43808</v>
       </c>
       <c r="E21" s="2">
         <v>26</v>
@@ -1272,13 +1272,13 @@
         <v>56</v>
       </c>
       <c r="D22" s="2">
-        <v>31307</v>
+        <v>31356</v>
       </c>
       <c r="E22" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F22" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G22" s="2">
         <v>10</v>
@@ -1298,13 +1298,13 @@
         <v>57</v>
       </c>
       <c r="D23" s="2">
-        <v>34761</v>
+        <v>34857</v>
       </c>
       <c r="E23" s="2">
         <v>25</v>
       </c>
       <c r="F23" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G23" s="2">
         <v>23</v>
@@ -1324,13 +1324,13 @@
         <v>58</v>
       </c>
       <c r="D24" s="2">
-        <v>30714</v>
+        <v>30957</v>
       </c>
       <c r="E24" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F24" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G24" s="2">
         <v>9</v>
@@ -1350,7 +1350,7 @@
         <v>59</v>
       </c>
       <c r="D25" s="2">
-        <v>19117</v>
+        <v>19283</v>
       </c>
       <c r="E25" s="2">
         <v>5</v>
@@ -1376,7 +1376,7 @@
         <v>60</v>
       </c>
       <c r="D26" s="2">
-        <v>37314</v>
+        <v>37479</v>
       </c>
       <c r="E26" s="2">
         <v>35</v>
@@ -1402,7 +1402,7 @@
         <v>61</v>
       </c>
       <c r="D27" s="2">
-        <v>37984</v>
+        <v>38006</v>
       </c>
       <c r="E27" s="2">
         <v>22</v>
@@ -1428,16 +1428,16 @@
         <v>62</v>
       </c>
       <c r="D28" s="2">
-        <v>6569</v>
+        <v>8198</v>
       </c>
       <c r="E28" s="2">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F28" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G28" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>92</v>
@@ -1454,16 +1454,16 @@
         <v>63</v>
       </c>
       <c r="D29" s="2">
-        <v>25173</v>
+        <v>6593</v>
       </c>
       <c r="E29" s="2">
+        <v>5</v>
+      </c>
+      <c r="F29" s="2">
         <v>0</v>
       </c>
-      <c r="F29" s="2">
-        <v>54</v>
-      </c>
       <c r="G29" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>93</v>
@@ -1474,22 +1474,22 @@
         <v>34</v>
       </c>
       <c r="B30" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D30" s="2">
-        <v>36473</v>
+        <v>25173</v>
       </c>
       <c r="E30" s="2">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F30" s="2">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="G30" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>94</v>
@@ -1506,19 +1506,19 @@
         <v>65</v>
       </c>
       <c r="D31" s="2">
-        <v>31683</v>
+        <v>36535</v>
       </c>
       <c r="E31" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F31" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G31" s="2">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1532,40 +1532,42 @@
         <v>66</v>
       </c>
       <c r="D32" s="2">
-        <v>31164</v>
+        <v>31683</v>
       </c>
       <c r="E32" s="2">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F32" s="2">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G32" s="2">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="2"/>
+      <c r="B33" s="2">
+        <v>10</v>
+      </c>
       <c r="C33" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D33" s="2">
-        <v>8137</v>
+        <v>31160</v>
       </c>
       <c r="E33" s="2">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F33" s="2">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G33" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>96</v>
@@ -1576,7 +1578,7 @@
     <mergeCell ref="A1:AS1"/>
     <mergeCell ref="A2:AS2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:H32">
+  <conditionalFormatting sqref="A2:H33">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD($B2,2)=0</formula>
     </cfRule>

--- a/output/c6aurac_brawler_levels_team.xlsx
+++ b/output/c6aurac_brawler_levels_team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="97">
   <si>
     <t>player</t>
   </si>
@@ -85,12 +85,12 @@
     <t>Wailing Swan</t>
   </si>
   <si>
-    <t>OBL|💫Starlight</t>
-  </si>
-  <si>
     <t>Saurav</t>
   </si>
   <si>
+    <t>⛩|Ninja64🎋</t>
+  </si>
+  <si>
     <t>❦︎𝐙𝐆|hanzla💫</t>
   </si>
   <si>
@@ -121,9 +121,6 @@
     <t>sasameseed</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>Synderella</t>
   </si>
   <si>
@@ -175,12 +172,12 @@
     <t>#2LYQPR8G9</t>
   </si>
   <si>
-    <t>#U22LU9JR</t>
-  </si>
-  <si>
     <t>#U2Q9L2QU</t>
   </si>
   <si>
+    <t>#9JVYLJY</t>
+  </si>
+  <si>
     <t>#8R9UR9C90</t>
   </si>
   <si>
@@ -211,16 +208,13 @@
     <t>#8999QQCPC</t>
   </si>
   <si>
-    <t>#J80JQCQC</t>
-  </si>
-  <si>
     <t>#R80JC998</t>
   </si>
   <si>
     <t>#GJCYYV0P</t>
   </si>
   <si>
-    <t xml:space="preserve">BEA, BIBI, BO, BROCK, BYRON, CARL, DARRYL, EMZ, EVE, GALE, GRIFF, LOLA, ... </t>
+    <t xml:space="preserve">BEA, BELLE, BIBI, BO, BROCK, BYRON, CARL, COLT, DARRYL, EMZ, EVE, GALE, ... </t>
   </si>
   <si>
     <t>BARLEY, BO, CROW, DARRYL, EMZ, JESSIE, NANI, NITA, PENNY, SANDY, STU, TICK</t>
@@ -244,10 +238,10 @@
     <t>EVE, JANET, SHELLY</t>
   </si>
   <si>
-    <t xml:space="preserve">AMBER, ASH, BARLEY, BONNIE, BROCK, BUZZ, BYRON, CARL, CROW, EVE, FANG, GALE, ... </t>
-  </si>
-  <si>
-    <t>EMZ, EVE, MAX, POCO, RICO, SANDY, SPIKE, STU</t>
+    <t xml:space="preserve">AMBER, ASH, BARLEY, BONNIE, BROCK, BULL, BUSTER, BUZZ, BYRON, CARL, CROW, EVE, ... </t>
+  </si>
+  <si>
+    <t>BO, EMZ, EVE, MAX, POCO, RICO, SANDY, SPIKE, STU</t>
   </si>
   <si>
     <t>BUZZ</t>
@@ -265,10 +259,10 @@
     <t>BEA, CROW, LEON, MORTIS, RICO, SANDY, STU, SURGE</t>
   </si>
   <si>
-    <t xml:space="preserve">8-BIT, ASH, BARLEY, BEA, BELLE, BIBI, BO, BROCK, BUZZ, BYRON, COLETTE, COLT, ... </t>
-  </si>
-  <si>
-    <t>BEA, CARL, EMZ, GENE, JACKY, MAX, MORTIS, SURGE, TARA</t>
+    <t>BEA, CARL, COLT, EMZ, GENE, JACKY, MAX, MORTIS, SURGE, TARA</t>
+  </si>
+  <si>
+    <t>COLT, MORTIS, STU</t>
   </si>
   <si>
     <t xml:space="preserve">BIBI, BO, BONNIE, BULL, BUZZ, CROW, EMZ, FANG, GALE, GRIFF, LEON, MAX, ... </t>
@@ -277,19 +271,19 @@
     <t>BELLE, BYRON, CROW, GRIFF, JANET, PIPER, POCO, SQUEAK, STU, SURGE</t>
   </si>
   <si>
-    <t xml:space="preserve">ASH, BELLE, BONNIE, CARL, CROW, EMZ, EVE, GENE, GRIFF, GUS, JANET, LEON, ... </t>
+    <t xml:space="preserve">ASH, BELLE, BO, BONNIE, CARL, CROW, EMZ, EVE, GENE, GRIFF, GUS, JANET, ... </t>
   </si>
   <si>
     <t>ASH, EVE, GRIFF, LOLA, LOU, NANI, POCO, SPIKE, TICK</t>
   </si>
   <si>
-    <t>BONNIE, BROCK, CARL, EMZ, FANG, GUS, JANET, OTIS, PENNY, POCO, SPIKE, STU</t>
+    <t xml:space="preserve">BONNIE, BROCK, CARL, CROW, EMZ, FANG, GUS, JANET, OTIS, PENNY, POCO, SPIKE, ... </t>
   </si>
   <si>
     <t xml:space="preserve">BARLEY, BELLE, BO, BYRON, COLT, CROW, DARRYL, EMZ, GRIFF, MR. P, NITA, OTIS, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">ASH, BELLE, BO, CARL, COLETTE, CROW, DARRYL, EDGAR, EMZ, GALE, GRIFF, GUS, ... </t>
+    <t xml:space="preserve">ASH, BELLE, BO, BROCK, CARL, COLETTE, CROW, DARRYL, EDGAR, EMZ, GALE, GRIFF, ... </t>
   </si>
   <si>
     <t>MORTIS, RICO</t>
@@ -301,7 +295,7 @@
     <t>CROW, EVE, MORTIS, SPIKE</t>
   </si>
   <si>
-    <t>BELLE, BYRON, CROW, PIPER, RICO, ROSA, SPIKE</t>
+    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BULL, BUSTER, ... </t>
   </si>
   <si>
     <t>ASH, BYRON, EMZ, EVE, GENE, GRIFF, SANDY</t>
@@ -310,7 +304,7 @@
     <t>C6 Brawler Levels</t>
   </si>
   <si>
-    <t>2022-11-04</t>
+    <t>2022-11-14</t>
   </si>
 </sst>
 </file>
@@ -681,7 +675,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS33"/>
+  <dimension ref="A1:AS32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -694,7 +688,7 @@
   <sheetData>
     <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -743,28 +737,28 @@
     </row>
     <row r="2" spans="1:45">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2">
-        <v>34783</v>
+        <v>34691</v>
       </c>
       <c r="E2" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2">
         <v>3</v>
       </c>
       <c r="G2" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -801,22 +795,22 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2">
-        <v>34783</v>
+        <v>34691</v>
       </c>
       <c r="E4" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F4" s="2">
         <v>3</v>
       </c>
       <c r="G4" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -827,10 +821,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2">
-        <v>29756</v>
+        <v>29471</v>
       </c>
       <c r="E5" s="2">
         <v>41</v>
@@ -842,7 +836,7 @@
         <v>12</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -853,22 +847,22 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2">
-        <v>35563</v>
+        <v>35493</v>
       </c>
       <c r="E6" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G6" s="2">
         <v>24</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -879,10 +873,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2">
-        <v>23625</v>
+        <v>23823</v>
       </c>
       <c r="E7" s="2">
         <v>21</v>
@@ -894,7 +888,7 @@
         <v>6</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -905,22 +899,22 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2">
-        <v>32973</v>
+        <v>33097</v>
       </c>
       <c r="E8" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" s="2">
         <v>13</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -931,22 +925,22 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2">
-        <v>34768</v>
+        <v>34822</v>
       </c>
       <c r="E9" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" s="2">
         <v>7</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -957,10 +951,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2">
-        <v>36785</v>
+        <v>36412</v>
       </c>
       <c r="E10" s="2">
         <v>23</v>
@@ -972,7 +966,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -983,22 +977,22 @@
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2">
-        <v>29739</v>
+        <v>30418</v>
       </c>
       <c r="E11" s="2">
         <v>13</v>
       </c>
       <c r="F11" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G11" s="2">
         <v>3</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -1009,22 +1003,22 @@
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2">
-        <v>37432</v>
+        <v>37124</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -1035,22 +1029,22 @@
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="2">
-        <v>16165</v>
+        <v>16164</v>
       </c>
       <c r="E13" s="2">
         <v>11</v>
       </c>
       <c r="F13" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G13" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -1061,22 +1055,22 @@
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="2">
-        <v>12253</v>
+        <v>12311</v>
       </c>
       <c r="E14" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F14" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -1087,22 +1081,22 @@
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="2">
-        <v>33744</v>
+        <v>33789</v>
       </c>
       <c r="E15" s="2">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F15" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G15" s="2">
         <v>14</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -1113,10 +1107,10 @@
         <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="2">
-        <v>33666</v>
+        <v>34062</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -1128,7 +1122,7 @@
         <v>60</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1139,10 +1133,10 @@
         <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="2">
-        <v>32553</v>
+        <v>32525</v>
       </c>
       <c r="E17" s="2">
         <v>11</v>
@@ -1154,7 +1148,7 @@
         <v>6</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1165,22 +1159,22 @@
         <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="2">
-        <v>32689</v>
+        <v>33574</v>
       </c>
       <c r="E18" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G18" s="2">
         <v>8</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1191,22 +1185,22 @@
         <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="2">
-        <v>45084</v>
+        <v>33233</v>
       </c>
       <c r="E19" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F19" s="2">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G19" s="2">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1217,22 +1211,22 @@
         <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" s="2">
-        <v>33109</v>
+        <v>30868</v>
       </c>
       <c r="E20" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F20" s="2">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G20" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1243,22 +1237,22 @@
         <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" s="2">
-        <v>43808</v>
+        <v>43713</v>
       </c>
       <c r="E21" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F21" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G21" s="2">
         <v>16</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1269,10 +1263,10 @@
         <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="2">
-        <v>31356</v>
+        <v>31268</v>
       </c>
       <c r="E22" s="2">
         <v>28</v>
@@ -1284,7 +1278,7 @@
         <v>10</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1295,22 +1289,22 @@
         <v>7</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" s="2">
-        <v>34857</v>
+        <v>34495</v>
       </c>
       <c r="E23" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F23" s="2">
         <v>11</v>
       </c>
       <c r="G23" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1321,22 +1315,22 @@
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D24" s="2">
-        <v>30957</v>
+        <v>30930</v>
       </c>
       <c r="E24" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F24" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G24" s="2">
         <v>9</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1347,10 +1341,10 @@
         <v>8</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25" s="2">
-        <v>19283</v>
+        <v>19438</v>
       </c>
       <c r="E25" s="2">
         <v>5</v>
@@ -1359,10 +1353,10 @@
         <v>4</v>
       </c>
       <c r="G25" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1373,22 +1367,22 @@
         <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D26" s="2">
-        <v>37479</v>
+        <v>37498</v>
       </c>
       <c r="E26" s="2">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="F26" s="2">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="G26" s="2">
         <v>17</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1399,22 +1393,22 @@
         <v>8</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" s="2">
-        <v>38006</v>
+        <v>37833</v>
       </c>
       <c r="E27" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F27" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G27" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1425,22 +1419,22 @@
         <v>9</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D28" s="2">
-        <v>8198</v>
+        <v>8194</v>
       </c>
       <c r="E28" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F28" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28" s="2">
         <v>2</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1451,13 +1445,13 @@
         <v>9</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D29" s="2">
-        <v>6593</v>
+        <v>6658</v>
       </c>
       <c r="E29" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F29" s="2">
         <v>0</v>
@@ -1466,7 +1460,7 @@
         <v>5</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1477,13 +1471,13 @@
         <v>9</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D30" s="2">
-        <v>25173</v>
+        <v>24874</v>
       </c>
       <c r="E30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="2">
         <v>54</v>
@@ -1492,7 +1486,7 @@
         <v>4</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1503,22 +1497,22 @@
         <v>10</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D31" s="2">
-        <v>36535</v>
+        <v>31649</v>
       </c>
       <c r="E31" s="2">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F31" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G31" s="2">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1529,48 +1523,22 @@
         <v>10</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D32" s="2">
-        <v>31683</v>
+        <v>30942</v>
       </c>
       <c r="E32" s="2">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F32" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G32" s="2">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="2">
-        <v>10</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="2">
-        <v>31160</v>
-      </c>
-      <c r="E33" s="2">
-        <v>35</v>
-      </c>
-      <c r="F33" s="2">
-        <v>18</v>
-      </c>
-      <c r="G33" s="2">
-        <v>7</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1578,7 +1546,7 @@
     <mergeCell ref="A1:AS1"/>
     <mergeCell ref="A2:AS2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:H33">
+  <conditionalFormatting sqref="A2:H32">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD($B2,2)=0</formula>
     </cfRule>
